--- a/data/compile_2015-2019/bugs/counts/count_vs_richness/subsampling_vs_not_richness_analysis_2021-12-01.xlsx
+++ b/data/compile_2015-2019/bugs/counts/count_vs_richness/subsampling_vs_not_richness_analysis_2021-12-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\LGSS_scripting\lgss\data\compile_2015-2019\bugs\counts\count_vs_richness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C286498B-725C-499A-A3FA-47D13CFAB2F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF1598B-4523-4ACA-8AE3-D7688FA778F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>site_id</t>
   </si>
@@ -516,9 +516,6 @@
     <t>diff</t>
   </si>
   <si>
-    <t>% change</t>
-  </si>
-  <si>
     <t>rich_ttaxa_orig</t>
   </si>
   <si>
@@ -526,6 +523,12 @@
   </si>
   <si>
     <t>condition_class</t>
+  </si>
+  <si>
+    <t>indiv_count-not_subsampled</t>
+  </si>
+  <si>
+    <t>richness percent change</t>
   </si>
 </sst>
 </file>
@@ -1095,6 +1098,2011 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Effect</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of not subsampling on richness</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for low-gradient samples (n=158)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24631840796019899"/>
+          <c:y val="3.3613445378151259E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>count_vs_sp_rich_not_subsampled!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>indiv_count-not_subsampled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>count_vs_sp_rich_not_subsampled!$G$2:$G$159</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="158"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25806451612903225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17391304347826086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14705882352941177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13793103448275862</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12903225806451613</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12820512820512819</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11904761904761904</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.407407407407407E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.8965517241379309E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.8823529411764705E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4054054054054057E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.878048780487805E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.7037037037037035E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.7037037037037035E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.7037037037037035E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.4482758620689655E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.2258064516129031E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.2258064516129031E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0303030303030304E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.0303030303030304E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0303030303030304E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.0303030303030304E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.9411764705882353E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.9411764705882353E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.9411764705882353E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.9411764705882353E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.8571428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.7777777777777776E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.7027027027027029E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.7027027027027029E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.7027027027027029E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.7027027027027029E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.6315789473684209E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.4390243902439025E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.4390243902439025E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.1276595744680851E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>count_vs_sp_rich_not_subsampled!$H$2:$H$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="158"/>
+                <c:pt idx="0">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-151A-4BB8-9C40-4AFD3ADF871B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="474596512"/>
+        <c:axId val="474596840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="474596512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% Change in Richness</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (susamped vs not)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474596840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="474596840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Original count (not subsampled)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474596512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>269873</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB033BC-3912-412B-8150-1E6A7E8EB9EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1392,10 +3400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,20 +3414,21 @@
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>159</v>
@@ -1428,10 +3437,13 @@
         <v>160</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
@@ -1448,15 +3460,18 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <f>D2-E2</f>
+        <f t="shared" ref="F2:F33" si="0">D2-E2</f>
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>F2/E2</f>
+        <f t="shared" ref="G2:G33" si="1">F2/E2</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>146</v>
       </c>
@@ -1473,15 +3488,18 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <f>D3-E3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G3" s="1">
-        <f>F3/E3</f>
+        <f t="shared" si="1"/>
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>89</v>
       </c>
@@ -1498,15 +3516,18 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <f>D4-E4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G4" s="1">
-        <f>F4/E4</f>
+        <f t="shared" si="1"/>
         <v>0.25806451612903225</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1523,15 +3544,18 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <f>D5-E5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G5" s="1">
-        <f>F5/E5</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>124</v>
       </c>
@@ -1548,15 +3572,18 @@
         <v>24</v>
       </c>
       <c r="F6">
-        <f>D6-E6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G6" s="1">
-        <f>F6/E6</f>
+        <f t="shared" si="1"/>
         <v>0.20833333333333334</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>65</v>
       </c>
@@ -1573,15 +3600,18 @@
         <v>24</v>
       </c>
       <c r="F7">
-        <f>D7-E7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f>F7/E7</f>
+        <f t="shared" si="1"/>
         <v>0.20833333333333334</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>78</v>
       </c>
@@ -1598,15 +3628,18 @@
         <v>23</v>
       </c>
       <c r="F8">
-        <f>D8-E8</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G8" s="1">
-        <f>F8/E8</f>
+        <f t="shared" si="1"/>
         <v>0.17391304347826086</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1623,15 +3656,18 @@
         <v>24</v>
       </c>
       <c r="F9">
-        <f>D9-E9</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G9" s="1">
-        <f>F9/E9</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -1648,15 +3684,18 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <f>D10-E10</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G10" s="1">
-        <f>F10/E10</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>125</v>
       </c>
@@ -1673,15 +3712,18 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <f>D11-E11</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G11" s="1">
-        <f>F11/E11</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>140</v>
       </c>
@@ -1698,15 +3740,18 @@
         <v>18</v>
       </c>
       <c r="F12">
-        <f>D12-E12</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G12" s="1">
-        <f>F12/E12</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>152</v>
       </c>
@@ -1723,15 +3768,18 @@
         <v>13</v>
       </c>
       <c r="F13">
-        <f>D13-E13</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G13" s="1">
-        <f>F13/E13</f>
+        <f t="shared" si="1"/>
         <v>0.15384615384615385</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>150</v>
       </c>
@@ -1748,15 +3796,18 @@
         <v>34</v>
       </c>
       <c r="F14">
-        <f>D14-E14</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G14" s="1">
-        <f>F14/E14</f>
+        <f t="shared" si="1"/>
         <v>0.14705882352941177</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>84</v>
       </c>
@@ -1773,15 +3824,18 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <f>D15-E15</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G15" s="1">
-        <f>F15/E15</f>
+        <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -1798,15 +3852,18 @@
         <v>29</v>
       </c>
       <c r="F16">
-        <f>D16-E16</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G16" s="1">
-        <f>F16/E16</f>
+        <f t="shared" si="1"/>
         <v>0.13793103448275862</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1823,15 +3880,18 @@
         <v>31</v>
       </c>
       <c r="F17">
-        <f>D17-E17</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G17" s="1">
-        <f>F17/E17</f>
+        <f t="shared" si="1"/>
         <v>0.12903225806451613</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>133</v>
       </c>
@@ -1848,15 +3908,18 @@
         <v>39</v>
       </c>
       <c r="F18">
-        <f>D18-E18</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G18" s="1">
-        <f>F18/E18</f>
+        <f t="shared" si="1"/>
         <v>0.12820512820512819</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>121</v>
       </c>
@@ -1873,15 +3936,18 @@
         <v>16</v>
       </c>
       <c r="F19">
-        <f>D19-E19</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G19" s="1">
-        <f>F19/E19</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
@@ -1898,15 +3964,18 @@
         <v>8</v>
       </c>
       <c r="F20">
-        <f>D20-E20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <f>F20/E20</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -1923,15 +3992,18 @@
         <v>25</v>
       </c>
       <c r="F21">
-        <f>D21-E21</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G21" s="1">
-        <f>F21/E21</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>129</v>
       </c>
@@ -1948,15 +4020,18 @@
         <v>42</v>
       </c>
       <c r="F22">
-        <f>D22-E22</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G22" s="1">
-        <f>F22/E22</f>
+        <f t="shared" si="1"/>
         <v>0.11904761904761904</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>155</v>
       </c>
@@ -1973,15 +4048,18 @@
         <v>27</v>
       </c>
       <c r="F23">
-        <f>D23-E23</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G23" s="1">
-        <f>F23/E23</f>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1998,15 +4076,18 @@
         <v>19</v>
       </c>
       <c r="F24">
-        <f>D24-E24</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G24" s="1">
-        <f>F24/E24</f>
+        <f t="shared" si="1"/>
         <v>0.10526315789473684</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -2023,15 +4104,18 @@
         <v>33</v>
       </c>
       <c r="F25">
-        <f>D25-E25</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G25" s="1">
-        <f>F25/E25</f>
+        <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -2048,15 +4132,18 @@
         <v>33</v>
       </c>
       <c r="F26">
-        <f>D26-E26</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G26" s="1">
-        <f>F26/E26</f>
+        <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -2073,15 +4160,18 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <f>D27-E27</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <f>F27/E27</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>74</v>
       </c>
@@ -2098,15 +4188,18 @@
         <v>39</v>
       </c>
       <c r="F28">
-        <f>D28-E28</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G28" s="1">
-        <f>F28/E28</f>
+        <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2123,15 +4216,18 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <f>D29-E29</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <f>F29/E29</f>
+        <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>62</v>
       </c>
@@ -2148,15 +4244,18 @@
         <v>26</v>
       </c>
       <c r="F30">
-        <f>D30-E30</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G30" s="1">
-        <f>F30/E30</f>
+        <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
@@ -2173,15 +4272,18 @@
         <v>27</v>
       </c>
       <c r="F31">
-        <f>D31-E31</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G31" s="1">
-        <f>F31/E31</f>
+        <f t="shared" si="1"/>
         <v>7.407407407407407E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>52</v>
       </c>
@@ -2198,15 +4300,18 @@
         <v>28</v>
       </c>
       <c r="F32">
-        <f>D32-E32</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G32" s="1">
-        <f>F32/E32</f>
+        <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
@@ -2223,15 +4328,18 @@
         <v>14</v>
       </c>
       <c r="F33">
-        <f>D33-E33</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G33" s="1">
-        <f>F33/E33</f>
+        <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
@@ -2248,15 +4356,18 @@
         <v>29</v>
       </c>
       <c r="F34">
-        <f>D34-E34</f>
+        <f t="shared" ref="F34:F65" si="2">D34-E34</f>
         <v>2</v>
       </c>
       <c r="G34" s="1">
-        <f>F34/E34</f>
+        <f t="shared" ref="G34:G65" si="3">F34/E34</f>
         <v>6.8965517241379309E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>106</v>
       </c>
@@ -2273,15 +4384,18 @@
         <v>30</v>
       </c>
       <c r="F35">
-        <f>D35-E35</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G35" s="1">
-        <f>F35/E35</f>
+        <f t="shared" si="3"/>
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -2298,15 +4412,18 @@
         <v>34</v>
       </c>
       <c r="F36">
-        <f>D36-E36</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G36" s="1">
-        <f>F36/E36</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>17</v>
       </c>
@@ -2323,15 +4440,18 @@
         <v>18</v>
       </c>
       <c r="F37">
-        <f>D37-E37</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G37" s="1">
-        <f>F37/E37</f>
+        <f t="shared" si="3"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
@@ -2348,15 +4468,18 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <f>D38-E38</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G38" s="1">
-        <f>F38/E38</f>
+        <f t="shared" si="3"/>
         <v>5.4054054054054057E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -2373,15 +4496,18 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <f>D39-E39</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G39" s="1">
-        <f>F39/E39</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>128</v>
       </c>
@@ -2398,15 +4524,18 @@
         <v>41</v>
       </c>
       <c r="F40">
-        <f>D40-E40</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G40" s="1">
-        <f>F40/E40</f>
+        <f t="shared" si="3"/>
         <v>4.878048780487805E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>139</v>
       </c>
@@ -2423,15 +4552,18 @@
         <v>22</v>
       </c>
       <c r="F41">
-        <f>D41-E41</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <f>F41/E41</f>
+        <f t="shared" si="3"/>
         <v>4.5454545454545456E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>145</v>
       </c>
@@ -2448,15 +4580,18 @@
         <v>25</v>
       </c>
       <c r="F42">
-        <f>D42-E42</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <f>F42/E42</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,15 +4608,18 @@
         <v>25</v>
       </c>
       <c r="F43">
-        <f>D43-E43</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G43" s="1">
-        <f>F43/E43</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>153</v>
       </c>
@@ -2498,15 +4636,18 @@
         <v>27</v>
       </c>
       <c r="F44">
-        <f>D44-E44</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G44" s="1">
-        <f>F44/E44</f>
+        <f t="shared" si="3"/>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>73</v>
       </c>
@@ -2523,15 +4664,18 @@
         <v>27</v>
       </c>
       <c r="F45">
-        <f>D45-E45</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <f>F45/E45</f>
+        <f t="shared" si="3"/>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>120</v>
       </c>
@@ -2548,15 +4692,18 @@
         <v>27</v>
       </c>
       <c r="F46">
-        <f>D46-E46</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G46" s="1">
-        <f>F46/E46</f>
+        <f t="shared" si="3"/>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>149</v>
       </c>
@@ -2573,15 +4720,18 @@
         <v>29</v>
       </c>
       <c r="F47">
-        <f>D47-E47</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <f>F47/E47</f>
+        <f t="shared" si="3"/>
         <v>3.4482758620689655E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -2598,15 +4748,18 @@
         <v>31</v>
       </c>
       <c r="F48">
-        <f>D48-E48</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <f>F48/E48</f>
+        <f t="shared" si="3"/>
         <v>3.2258064516129031E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
@@ -2623,15 +4776,18 @@
         <v>31</v>
       </c>
       <c r="F49">
-        <f>D49-E49</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G49" s="1">
-        <f>F49/E49</f>
+        <f t="shared" si="3"/>
         <v>3.2258064516129031E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>103</v>
       </c>
@@ -2648,15 +4804,18 @@
         <v>33</v>
       </c>
       <c r="F50">
-        <f>D50-E50</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G50" s="1">
-        <f>F50/E50</f>
+        <f t="shared" si="3"/>
         <v>3.0303030303030304E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>113</v>
       </c>
@@ -2673,15 +4832,18 @@
         <v>33</v>
       </c>
       <c r="F51">
-        <f>D51-E51</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <f>F51/E51</f>
+        <f t="shared" si="3"/>
         <v>3.0303030303030304E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>142</v>
       </c>
@@ -2698,15 +4860,18 @@
         <v>33</v>
       </c>
       <c r="F52">
-        <f>D52-E52</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G52" s="1">
-        <f>F52/E52</f>
+        <f t="shared" si="3"/>
         <v>3.0303030303030304E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -2723,15 +4888,18 @@
         <v>33</v>
       </c>
       <c r="F53">
-        <f>D53-E53</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G53" s="1">
-        <f>F53/E53</f>
+        <f t="shared" si="3"/>
         <v>3.0303030303030304E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>99</v>
       </c>
@@ -2748,15 +4916,18 @@
         <v>34</v>
       </c>
       <c r="F54">
-        <f>D54-E54</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G54" s="1">
-        <f>F54/E54</f>
+        <f t="shared" si="3"/>
         <v>2.9411764705882353E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>8</v>
       </c>
@@ -2773,15 +4944,18 @@
         <v>34</v>
       </c>
       <c r="F55">
-        <f>D55-E55</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G55" s="1">
-        <f>F55/E55</f>
+        <f t="shared" si="3"/>
         <v>2.9411764705882353E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>104</v>
       </c>
@@ -2798,15 +4972,18 @@
         <v>34</v>
       </c>
       <c r="F56">
-        <f>D56-E56</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G56" s="1">
-        <f>F56/E56</f>
+        <f t="shared" si="3"/>
         <v>2.9411764705882353E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>141</v>
       </c>
@@ -2823,15 +5000,18 @@
         <v>34</v>
       </c>
       <c r="F57">
-        <f>D57-E57</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G57" s="1">
-        <f>F57/E57</f>
+        <f t="shared" si="3"/>
         <v>2.9411764705882353E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>109</v>
       </c>
@@ -2848,15 +5028,18 @@
         <v>35</v>
       </c>
       <c r="F58">
-        <f>D58-E58</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G58" s="1">
-        <f>F58/E58</f>
+        <f t="shared" si="3"/>
         <v>2.8571428571428571E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>55</v>
       </c>
@@ -2873,15 +5056,18 @@
         <v>36</v>
       </c>
       <c r="F59">
-        <f>D59-E59</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G59" s="1">
-        <f>F59/E59</f>
+        <f t="shared" si="3"/>
         <v>2.7777777777777776E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
@@ -2898,15 +5084,18 @@
         <v>37</v>
       </c>
       <c r="F60">
-        <f>D60-E60</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G60" s="1">
-        <f>F60/E60</f>
+        <f t="shared" si="3"/>
         <v>2.7027027027027029E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>135</v>
       </c>
@@ -2923,15 +5112,18 @@
         <v>37</v>
       </c>
       <c r="F61">
-        <f>D61-E61</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G61" s="1">
-        <f>F61/E61</f>
+        <f t="shared" si="3"/>
         <v>2.7027027027027029E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
@@ -2948,15 +5140,18 @@
         <v>37</v>
       </c>
       <c r="F62">
-        <f>D62-E62</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G62" s="1">
-        <f>F62/E62</f>
+        <f t="shared" si="3"/>
         <v>2.7027027027027029E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>112</v>
       </c>
@@ -2973,15 +5168,18 @@
         <v>37</v>
       </c>
       <c r="F63">
-        <f>D63-E63</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G63" s="1">
-        <f>F63/E63</f>
+        <f t="shared" si="3"/>
         <v>2.7027027027027029E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
@@ -2998,15 +5196,18 @@
         <v>38</v>
       </c>
       <c r="F64">
-        <f>D64-E64</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G64" s="1">
-        <f>F64/E64</f>
+        <f t="shared" si="3"/>
         <v>2.6315789473684209E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>107</v>
       </c>
@@ -3023,15 +5224,18 @@
         <v>41</v>
       </c>
       <c r="F65">
-        <f>D65-E65</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G65" s="1">
-        <f>F65/E65</f>
+        <f t="shared" si="3"/>
         <v>2.4390243902439025E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>111</v>
       </c>
@@ -3048,15 +5252,18 @@
         <v>41</v>
       </c>
       <c r="F66">
-        <f>D66-E66</f>
+        <f t="shared" ref="F66:F97" si="4">D66-E66</f>
         <v>1</v>
       </c>
       <c r="G66" s="1">
-        <f>F66/E66</f>
+        <f t="shared" ref="G66:G97" si="5">F66/E66</f>
         <v>2.4390243902439025E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>100</v>
       </c>
@@ -3073,15 +5280,18 @@
         <v>47</v>
       </c>
       <c r="F67">
-        <f>D67-E67</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G67" s="1">
-        <f>F67/E67</f>
+        <f t="shared" si="5"/>
         <v>2.1276595744680851E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>26</v>
       </c>
@@ -3098,15 +5308,18 @@
         <v>34</v>
       </c>
       <c r="F68">
-        <f>D68-E68</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f>F68/E68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>40</v>
       </c>
@@ -3123,15 +5336,18 @@
         <v>30</v>
       </c>
       <c r="F69">
-        <f>D69-E69</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f>F69/E69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>41</v>
       </c>
@@ -3148,15 +5364,18 @@
         <v>38</v>
       </c>
       <c r="F70">
-        <f>D70-E70</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <f>F70/E70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>57</v>
       </c>
@@ -3173,15 +5392,18 @@
         <v>40</v>
       </c>
       <c r="F71">
-        <f>D71-E71</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <f>F71/E71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>67</v>
       </c>
@@ -3198,15 +5420,18 @@
         <v>30</v>
       </c>
       <c r="F72">
-        <f>D72-E72</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f>F72/E72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
@@ -3223,15 +5448,18 @@
         <v>43</v>
       </c>
       <c r="F73">
-        <f>D73-E73</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <f>F73/E73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
@@ -3248,15 +5476,18 @@
         <v>45</v>
       </c>
       <c r="F74">
-        <f>D74-E74</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <f>F74/E74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>71</v>
       </c>
@@ -3273,15 +5504,18 @@
         <v>18</v>
       </c>
       <c r="F75">
-        <f>D75-E75</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <f>F75/E75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>72</v>
       </c>
@@ -3298,15 +5532,18 @@
         <v>33</v>
       </c>
       <c r="F76">
-        <f>D76-E76</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G76" s="1">
-        <f>F76/E76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -3323,15 +5560,18 @@
         <v>35</v>
       </c>
       <c r="F77">
-        <f>D77-E77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G77" s="1">
-        <f>F77/E77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>83</v>
       </c>
@@ -3348,15 +5588,18 @@
         <v>28</v>
       </c>
       <c r="F78">
-        <f>D78-E78</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <f>F78/E78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>86</v>
       </c>
@@ -3373,15 +5616,18 @@
         <v>52</v>
       </c>
       <c r="F79">
-        <f>D79-E79</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <f>F79/E79</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>93</v>
       </c>
@@ -3398,15 +5644,18 @@
         <v>31</v>
       </c>
       <c r="F80">
-        <f>D80-E80</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <f>F80/E80</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -3423,15 +5672,18 @@
         <v>35</v>
       </c>
       <c r="F81">
-        <f>D81-E81</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f>F81/E81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>97</v>
       </c>
@@ -3448,15 +5700,18 @@
         <v>22</v>
       </c>
       <c r="F82">
-        <f>D82-E82</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <f>F82/E82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>98</v>
       </c>
@@ -3473,15 +5728,18 @@
         <v>56</v>
       </c>
       <c r="F83">
-        <f>D83-E83</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f>F83/E83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>102</v>
       </c>
@@ -3498,15 +5756,18 @@
         <v>47</v>
       </c>
       <c r="F84">
-        <f>D84-E84</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <f>F84/E84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>105</v>
       </c>
@@ -3523,15 +5784,18 @@
         <v>35</v>
       </c>
       <c r="F85">
-        <f>D85-E85</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f>F85/E85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>127</v>
       </c>
@@ -3548,15 +5812,18 @@
         <v>41</v>
       </c>
       <c r="F86">
-        <f>D86-E86</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <f>F86/E86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>131</v>
       </c>
@@ -3573,15 +5840,18 @@
         <v>33</v>
       </c>
       <c r="F87">
-        <f>D87-E87</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G87" s="1">
-        <f>F87/E87</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>134</v>
       </c>
@@ -3598,15 +5868,18 @@
         <v>36</v>
       </c>
       <c r="F88">
-        <f>D88-E88</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G88" s="1">
-        <f>F88/E88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>137</v>
       </c>
@@ -3623,15 +5896,18 @@
         <v>22</v>
       </c>
       <c r="F89">
-        <f>D89-E89</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G89" s="1">
-        <f>F89/E89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>148</v>
       </c>
@@ -3648,15 +5924,18 @@
         <v>27</v>
       </c>
       <c r="F90">
-        <f>D90-E90</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G90" s="1">
-        <f>F90/E90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>5</v>
       </c>
@@ -3673,15 +5952,18 @@
         <v>37</v>
       </c>
       <c r="F91">
-        <f>D91-E91</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <f>F91/E91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>6</v>
       </c>
@@ -3698,15 +5980,18 @@
         <v>34</v>
       </c>
       <c r="F92">
-        <f>D92-E92</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <f>F92/E92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>10</v>
       </c>
@@ -3723,15 +6008,18 @@
         <v>29</v>
       </c>
       <c r="F93">
-        <f>D93-E93</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G93" s="1">
-        <f>F93/E93</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>13</v>
       </c>
@@ -3748,15 +6036,18 @@
         <v>36</v>
       </c>
       <c r="F94">
-        <f>D94-E94</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G94" s="1">
-        <f>F94/E94</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>16</v>
       </c>
@@ -3773,15 +6064,18 @@
         <v>19</v>
       </c>
       <c r="F95">
-        <f>D95-E95</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f>F95/E95</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>20</v>
       </c>
@@ -3798,15 +6092,18 @@
         <v>23</v>
       </c>
       <c r="F96">
-        <f>D96-E96</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G96" s="1">
-        <f>F96/E96</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>27</v>
       </c>
@@ -3823,15 +6120,18 @@
         <v>24</v>
       </c>
       <c r="F97">
-        <f>D97-E97</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G97" s="1">
-        <f>F97/E97</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3848,15 +6148,18 @@
         <v>24</v>
       </c>
       <c r="F98">
-        <f>D98-E98</f>
+        <f t="shared" ref="F98:F129" si="6">D98-E98</f>
         <v>0</v>
       </c>
       <c r="G98" s="1">
-        <f>F98/E98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G98:G129" si="7">F98/E98</f>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>35</v>
       </c>
@@ -3873,15 +6176,18 @@
         <v>46</v>
       </c>
       <c r="F99">
-        <f>D99-E99</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G99" s="1">
-        <f>F99/E99</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>38</v>
       </c>
@@ -3898,15 +6204,18 @@
         <v>27</v>
       </c>
       <c r="F100">
-        <f>D100-E100</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <f>F100/E100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>43</v>
       </c>
@@ -3923,15 +6232,18 @@
         <v>39</v>
       </c>
       <c r="F101">
-        <f>D101-E101</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G101" s="1">
-        <f>F101/E101</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>44</v>
       </c>
@@ -3948,15 +6260,18 @@
         <v>23</v>
       </c>
       <c r="F102">
-        <f>D102-E102</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G102" s="1">
-        <f>F102/E102</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>45</v>
       </c>
@@ -3973,15 +6288,18 @@
         <v>35</v>
       </c>
       <c r="F103">
-        <f>D103-E103</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G103" s="1">
-        <f>F103/E103</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>46</v>
       </c>
@@ -3998,15 +6316,18 @@
         <v>18</v>
       </c>
       <c r="F104">
-        <f>D104-E104</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G104" s="1">
-        <f>F104/E104</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>47</v>
       </c>
@@ -4023,15 +6344,18 @@
         <v>15</v>
       </c>
       <c r="F105">
-        <f>D105-E105</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G105" s="1">
-        <f>F105/E105</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>50</v>
       </c>
@@ -4048,15 +6372,18 @@
         <v>28</v>
       </c>
       <c r="F106">
-        <f>D106-E106</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G106" s="1">
-        <f>F106/E106</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>51</v>
       </c>
@@ -4073,15 +6400,18 @@
         <v>32</v>
       </c>
       <c r="F107">
-        <f>D107-E107</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G107" s="1">
-        <f>F107/E107</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>58</v>
       </c>
@@ -4098,15 +6428,18 @@
         <v>41</v>
       </c>
       <c r="F108">
-        <f>D108-E108</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G108" s="1">
-        <f>F108/E108</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>61</v>
       </c>
@@ -4123,15 +6456,18 @@
         <v>15</v>
       </c>
       <c r="F109">
-        <f>D109-E109</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G109" s="1">
-        <f>F109/E109</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>75</v>
       </c>
@@ -4148,15 +6484,18 @@
         <v>16</v>
       </c>
       <c r="F110">
-        <f>D110-E110</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G110" s="1">
-        <f>F110/E110</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>77</v>
       </c>
@@ -4173,15 +6512,18 @@
         <v>26</v>
       </c>
       <c r="F111">
-        <f>D111-E111</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G111" s="1">
-        <f>F111/E111</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>79</v>
       </c>
@@ -4198,15 +6540,18 @@
         <v>28</v>
       </c>
       <c r="F112">
-        <f>D112-E112</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G112" s="1">
-        <f>F112/E112</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>82</v>
       </c>
@@ -4223,15 +6568,18 @@
         <v>22</v>
       </c>
       <c r="F113">
-        <f>D113-E113</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G113" s="1">
-        <f>F113/E113</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>85</v>
       </c>
@@ -4248,15 +6596,18 @@
         <v>34</v>
       </c>
       <c r="F114">
-        <f>D114-E114</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G114" s="1">
-        <f>F114/E114</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>87</v>
       </c>
@@ -4273,15 +6624,18 @@
         <v>23</v>
       </c>
       <c r="F115">
-        <f>D115-E115</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G115" s="1">
-        <f>F115/E115</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>88</v>
       </c>
@@ -4298,15 +6652,18 @@
         <v>20</v>
       </c>
       <c r="F116">
-        <f>D116-E116</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G116" s="1">
-        <f>F116/E116</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>90</v>
       </c>
@@ -4323,15 +6680,18 @@
         <v>24</v>
       </c>
       <c r="F117">
-        <f>D117-E117</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G117" s="1">
-        <f>F117/E117</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>92</v>
       </c>
@@ -4348,15 +6708,18 @@
         <v>40</v>
       </c>
       <c r="F118">
-        <f>D118-E118</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G118" s="1">
-        <f>F118/E118</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>94</v>
       </c>
@@ -4373,15 +6736,18 @@
         <v>15</v>
       </c>
       <c r="F119">
-        <f>D119-E119</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G119" s="1">
-        <f>F119/E119</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>96</v>
       </c>
@@ -4398,15 +6764,18 @@
         <v>43</v>
       </c>
       <c r="F120">
-        <f>D120-E120</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G120" s="1">
-        <f>F120/E120</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>101</v>
       </c>
@@ -4423,15 +6792,18 @@
         <v>22</v>
       </c>
       <c r="F121">
-        <f>D121-E121</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G121" s="1">
-        <f>F121/E121</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>114</v>
       </c>
@@ -4448,15 +6820,18 @@
         <v>29</v>
       </c>
       <c r="F122">
-        <f>D122-E122</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G122" s="1">
-        <f>F122/E122</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>115</v>
       </c>
@@ -4473,15 +6848,18 @@
         <v>24</v>
       </c>
       <c r="F123">
-        <f>D123-E123</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G123" s="1">
-        <f>F123/E123</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>117</v>
       </c>
@@ -4498,15 +6876,18 @@
         <v>16</v>
       </c>
       <c r="F124">
-        <f>D124-E124</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G124" s="1">
-        <f>F124/E124</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>118</v>
       </c>
@@ -4523,15 +6904,18 @@
         <v>45</v>
       </c>
       <c r="F125">
-        <f>D125-E125</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G125" s="1">
-        <f>F125/E125</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>119</v>
       </c>
@@ -4548,15 +6932,18 @@
         <v>20</v>
       </c>
       <c r="F126">
-        <f>D126-E126</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G126" s="1">
-        <f>F126/E126</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>122</v>
       </c>
@@ -4573,15 +6960,18 @@
         <v>16</v>
       </c>
       <c r="F127">
-        <f>D127-E127</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G127" s="1">
-        <f>F127/E127</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>123</v>
       </c>
@@ -4598,15 +6988,18 @@
         <v>29</v>
       </c>
       <c r="F128">
-        <f>D128-E128</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G128" s="1">
-        <f>F128/E128</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>126</v>
       </c>
@@ -4623,15 +7016,18 @@
         <v>17</v>
       </c>
       <c r="F129">
-        <f>D129-E129</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G129" s="1">
-        <f>F129/E129</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>130</v>
       </c>
@@ -4648,15 +7044,18 @@
         <v>20</v>
       </c>
       <c r="F130">
-        <f>D130-E130</f>
+        <f t="shared" ref="F130:F161" si="8">D130-E130</f>
         <v>0</v>
       </c>
       <c r="G130" s="1">
-        <f>F130/E130</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G130:G161" si="9">F130/E130</f>
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>132</v>
       </c>
@@ -4673,15 +7072,18 @@
         <v>29</v>
       </c>
       <c r="F131">
-        <f>D131-E131</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G131" s="1">
-        <f>F131/E131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>136</v>
       </c>
@@ -4698,15 +7100,18 @@
         <v>26</v>
       </c>
       <c r="F132">
-        <f>D132-E132</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G132" s="1">
-        <f>F132/E132</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>138</v>
       </c>
@@ -4723,15 +7128,18 @@
         <v>41</v>
       </c>
       <c r="F133">
-        <f>D133-E133</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G133" s="1">
-        <f>F133/E133</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>143</v>
       </c>
@@ -4748,15 +7156,18 @@
         <v>39</v>
       </c>
       <c r="F134">
-        <f>D134-E134</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G134" s="1">
-        <f>F134/E134</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>151</v>
       </c>
@@ -4773,15 +7184,18 @@
         <v>20</v>
       </c>
       <c r="F135">
-        <f>D135-E135</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G135" s="1">
-        <f>F135/E135</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>157</v>
       </c>
@@ -4798,15 +7212,18 @@
         <v>15</v>
       </c>
       <c r="F136">
-        <f>D136-E136</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G136" s="1">
-        <f>F136/E136</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>158</v>
       </c>
@@ -4823,15 +7240,18 @@
         <v>26</v>
       </c>
       <c r="F137">
-        <f>D137-E137</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G137" s="1">
-        <f>F137/E137</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>1</v>
       </c>
@@ -4848,15 +7268,18 @@
         <v>18</v>
       </c>
       <c r="F138">
-        <f>D138-E138</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G138" s="1">
-        <f>F138/E138</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>2</v>
       </c>
@@ -4873,15 +7296,18 @@
         <v>19</v>
       </c>
       <c r="F139">
-        <f>D139-E139</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G139" s="1">
-        <f>F139/E139</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>15</v>
       </c>
@@ -4898,15 +7324,18 @@
         <v>23</v>
       </c>
       <c r="F140">
-        <f>D140-E140</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G140" s="1">
-        <f>F140/E140</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>24</v>
       </c>
@@ -4923,15 +7352,18 @@
         <v>29</v>
       </c>
       <c r="F141">
-        <f>D141-E141</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G141" s="1">
-        <f>F141/E141</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>25</v>
       </c>
@@ -4948,15 +7380,18 @@
         <v>26</v>
       </c>
       <c r="F142">
-        <f>D142-E142</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G142" s="1">
-        <f>F142/E142</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>28</v>
       </c>
@@ -4973,15 +7408,18 @@
         <v>21</v>
       </c>
       <c r="F143">
-        <f>D143-E143</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G143" s="1">
-        <f>F143/E143</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>34</v>
       </c>
@@ -4998,15 +7436,18 @@
         <v>8</v>
       </c>
       <c r="F144">
-        <f>D144-E144</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G144" s="1">
-        <f>F144/E144</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>49</v>
       </c>
@@ -5023,15 +7464,18 @@
         <v>25</v>
       </c>
       <c r="F145">
-        <f>D145-E145</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G145" s="1">
-        <f>F145/E145</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>53</v>
       </c>
@@ -5048,15 +7492,18 @@
         <v>9</v>
       </c>
       <c r="F146">
-        <f>D146-E146</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G146" s="1">
-        <f>F146/E146</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>56</v>
       </c>
@@ -5073,15 +7520,18 @@
         <v>46</v>
       </c>
       <c r="F147">
-        <f>D147-E147</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G147" s="1">
-        <f>F147/E147</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>60</v>
       </c>
@@ -5098,15 +7548,18 @@
         <v>28</v>
       </c>
       <c r="F148">
-        <f>D148-E148</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G148" s="1">
-        <f>F148/E148</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>63</v>
       </c>
@@ -5123,15 +7576,18 @@
         <v>14</v>
       </c>
       <c r="F149">
-        <f>D149-E149</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G149" s="1">
-        <f>F149/E149</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>64</v>
       </c>
@@ -5148,15 +7604,18 @@
         <v>17</v>
       </c>
       <c r="F150">
-        <f>D150-E150</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G150" s="1">
-        <f>F150/E150</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>80</v>
       </c>
@@ -5173,15 +7632,18 @@
         <v>14</v>
       </c>
       <c r="F151">
-        <f>D151-E151</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G151" s="1">
-        <f>F151/E151</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>81</v>
       </c>
@@ -5198,15 +7660,18 @@
         <v>31</v>
       </c>
       <c r="F152">
-        <f>D152-E152</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G152" s="1">
-        <f>F152/E152</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>91</v>
       </c>
@@ -5223,15 +7688,18 @@
         <v>33</v>
       </c>
       <c r="F153">
-        <f>D153-E153</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G153" s="1">
-        <f>F153/E153</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>108</v>
       </c>
@@ -5248,15 +7716,18 @@
         <v>18</v>
       </c>
       <c r="F154">
-        <f>D154-E154</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G154" s="1">
-        <f>F154/E154</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>110</v>
       </c>
@@ -5273,15 +7744,18 @@
         <v>19</v>
       </c>
       <c r="F155">
-        <f>D155-E155</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G155" s="1">
-        <f>F155/E155</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>144</v>
       </c>
@@ -5298,15 +7772,18 @@
         <v>10</v>
       </c>
       <c r="F156">
-        <f>D156-E156</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G156" s="1">
-        <f>F156/E156</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>147</v>
       </c>
@@ -5323,15 +7800,18 @@
         <v>16</v>
       </c>
       <c r="F157">
-        <f>D157-E157</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G157" s="1">
-        <f>F157/E157</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>154</v>
       </c>
@@ -5348,15 +7828,18 @@
         <v>20</v>
       </c>
       <c r="F158">
-        <f>D158-E158</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G158" s="1">
-        <f>F158/E158</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>156</v>
       </c>
@@ -5373,12 +7856,15 @@
         <v>15</v>
       </c>
       <c r="F159">
-        <f>D159-E159</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G159" s="1">
-        <f>F159/E159</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5387,5 +7873,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>